--- a/Resources/MARS_original_testing/Cohort Metadata MARS.xlsx
+++ b/Resources/MARS_original_testing/Cohort Metadata MARS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndidier\Desktop\skyn_data_manager\resources\MARS_original_testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndidier\Desktop\skyn_data_manager\Resources\MARS_original_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C49D00-3EF6-460B-8057-E9D6C76EFCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39A94C0-09EF-4CA1-81CA-22FF0A7A9C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1515" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Quality" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
     <t>TotalDrks</t>
   </si>
   <si>
-    <t>Episode_Identifier</t>
+    <t>Dataset_Identifier</t>
   </si>
 </sst>
 </file>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resources/MARS_original_testing/Cohort Metadata MARS.xlsx
+++ b/Resources/MARS_original_testing/Cohort Metadata MARS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndidier\Desktop\skyn_data_manager\Resources\MARS_original_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39A94C0-09EF-4CA1-81CA-22FF0A7A9C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7597333-D5BA-41CB-B047-227AD2C4A0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1515" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -531,15 +531,15 @@
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="102.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
